--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,527 +436,637 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>N° BL</t>
+          <t>client</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>qte</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Marchandise</t>
+          <t>poids</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>produits</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>detail</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nombre colis</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Poids brute</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Marchandise.1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Némuro de chassis</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Modèle</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SURF</t>
+          <t>rec_qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SM25258LDJD075</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MDF/FANCY MDF/COMMERCIAL PLYWOOD/BLOCKBOARD/FILM FACED PLYWOOD</t>
-        </is>
+          <t>EURL BABOR WOOD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C2" t="n">
+        <v>182.352</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1153.379</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SARL GHESSAB MOUSSA ET FILS POUR LE BOIS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SM25258LDJD076</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MDF</t>
-        </is>
+          <t>SARL CHENEM BOIS IMPORT EXPORT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>152</v>
+      </c>
+      <c r="C3" t="n">
+        <v>214.919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>291.129</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SARL MONOPAN</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SM25258LDJD111</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MDF two sides- one side PVC other side melamine paper</t>
-        </is>
+          <t>SARL FDB IMPORT EXPORT IMPORTATION DE BOIS ET DERIVEE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>182</v>
+      </c>
+      <c r="C4" t="n">
+        <v>193.151</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>496.17</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>EURL SNT IMPORT EXPORT</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SM25258LDJD112</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>block board two sides</t>
-        </is>
+          <t>SARL WOOD TIMBER IMPORTATION DE BOIS ET DERIVEE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>182</v>
+      </c>
+      <c r="C5" t="n">
+        <v>197.237</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>197.35</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>EURL SNT IMPORT EXPORT</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SM25258LDJD075</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MDF/FANCY MDF/COMMERCIAL PLYWOOD/BLOCKBOARD/FILM FACED PLYWOOD</t>
-        </is>
+          <t>SARL DJALA IMPORT EXPORT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>225</v>
+      </c>
+      <c r="C6" t="n">
+        <v>238.041</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1153.379</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>SARL GHESSAB MOUSSA ET FILS POUR LE BOIS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SM25258LDJD076</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MDF</t>
-        </is>
+          <t>EURL HK BOIS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>191</v>
+      </c>
+      <c r="C7" t="n">
+        <v>207.756</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>291.129</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>SARL MONOPAN</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SM25258LDJD111</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MDF two sides- one side PVC other side melamine paper</t>
-        </is>
+          <t>SARL MAHBOUB BOIS IMPORTATION DE BOIS ET DE LIEGE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>365.15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MDF</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>496.17</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EURL SNT IMPORT EXPORT</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SM25258LDJD112</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25A00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>block board two sides</t>
-        </is>
+          <t>SARL TRADY SPAN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>610</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1279.372</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SARL GROUPE EL FENNEC</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2032.86</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SARL MONOPAN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>174</v>
+      </c>
+      <c r="C11" t="n">
+        <v>291.129</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SARL R H BOIS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>600</v>
+      </c>
+      <c r="C12" t="n">
+        <v>638.2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EURL SNT IMPORT EXPORT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>693.52</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ctp</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GADI KAMAL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.348</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EURL ENTREPRISE TRAVAUX PUBLICS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EURL ALSFWANE SERVICES GENERALE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PLYWOOD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EURL GIBA TRADE IMPORT EXPORT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>761</v>
+      </c>
+      <c r="C17" t="n">
+        <v>973.3049999999999</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>MDF</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>197.35</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EURL SNT IMPORT EXPORT</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CTP</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SARL GHESSAB MOUSSA ET FILS POUR LE BOIS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>732</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1153.379</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MDF</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EURL STEEL SOLIDE</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>811</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8180.36</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>COIL</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EURL BOUGHEZALA ENTERPRISES GENERAUX ET LOCATION MATERIELS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pipes</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EURL BM GRAND TRAVAUX ET SERVICES</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PIPES</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EURL BOUGHEZALA ENTERPRISES GENERAUX ET LOCATION MATERIELS</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>beams</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EURL BM GRAND TRAVAUX ET SERVICES</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FIL MACHINE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EURL GHERBI MOURAD TRAVAUX ET SERVICES</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EURL EL TAHOURE GRANDS TRAVAUX PUBLICS HYDRAULIQUE ET CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SARL AURES ROYAL ENTREPRISE</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EURL PODIOUM TRAVAUX PUBLICS PROJET</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SARL TANASSAMOU GENIE CIVIL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46.46</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EURL ELASSALA TRAVAUX PUBLICS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TABTI ABDELKADER</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UNITS+PACKAGES</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="454">
   <si>
     <t>NAVIRE</t>
   </si>
@@ -65,6 +65,1317 @@
   </si>
   <si>
     <t>DATE ENLEV</t>
+  </si>
+  <si>
+    <t>SM25258GDJD001</t>
+  </si>
+  <si>
+    <t>SM25258GDJD002</t>
+  </si>
+  <si>
+    <t>SM25258GDJD003</t>
+  </si>
+  <si>
+    <t>SM25258HDJD001</t>
+  </si>
+  <si>
+    <t>SM25258LDJD064</t>
+  </si>
+  <si>
+    <t>SM25258LDJD065</t>
+  </si>
+  <si>
+    <t>SM25258LDJD066</t>
+  </si>
+  <si>
+    <t>SM25258LDJD067</t>
+  </si>
+  <si>
+    <t>SM25258LDJD068</t>
+  </si>
+  <si>
+    <t>SM25258LDJD069</t>
+  </si>
+  <si>
+    <t>SM25258LDJD070</t>
+  </si>
+  <si>
+    <t>SM25258LDJD071</t>
+  </si>
+  <si>
+    <t>SM25258LDJD072</t>
+  </si>
+  <si>
+    <t>SM25258LDJD073</t>
+  </si>
+  <si>
+    <t>SM25258LDJD074</t>
+  </si>
+  <si>
+    <t>SM25258LDJD075</t>
+  </si>
+  <si>
+    <t>SM25258LDJD076</t>
+  </si>
+  <si>
+    <t>SM25258LDJD077</t>
+  </si>
+  <si>
+    <t>SM25258LDJD111</t>
+  </si>
+  <si>
+    <t>SM25258LDJD112</t>
+  </si>
+  <si>
+    <t>SM25258LDJD001</t>
+  </si>
+  <si>
+    <t>SM25258LDJD002</t>
+  </si>
+  <si>
+    <t>SM25258LDJD003</t>
+  </si>
+  <si>
+    <t>SM25258LDJD004</t>
+  </si>
+  <si>
+    <t>SM25258LDJD005</t>
+  </si>
+  <si>
+    <t>SM25258LDJD006</t>
+  </si>
+  <si>
+    <t>SM25258LDJD007</t>
+  </si>
+  <si>
+    <t>SM25258LDJD008</t>
+  </si>
+  <si>
+    <t>SM25258LDJD009</t>
+  </si>
+  <si>
+    <t>SM25258LDJD011</t>
+  </si>
+  <si>
+    <t>SM25258LDJD012</t>
+  </si>
+  <si>
+    <t>SM25258LDJD013</t>
+  </si>
+  <si>
+    <t>SM25258LDJD014</t>
+  </si>
+  <si>
+    <t>SM25258LDJD015</t>
+  </si>
+  <si>
+    <t>SM25258LDJD016</t>
+  </si>
+  <si>
+    <t>SM25258LDJD017</t>
+  </si>
+  <si>
+    <t>SM25258LDJD018</t>
+  </si>
+  <si>
+    <t>SM25258LDJD019</t>
+  </si>
+  <si>
+    <t>SM25258LDJD020</t>
+  </si>
+  <si>
+    <t>SM25258LDJD021</t>
+  </si>
+  <si>
+    <t>SM25258LDJD022</t>
+  </si>
+  <si>
+    <t>SM25258LDJD023</t>
+  </si>
+  <si>
+    <t>SM25258LDJD024</t>
+  </si>
+  <si>
+    <t>SM25258LDJD025</t>
+  </si>
+  <si>
+    <t>SM25258LDJD026</t>
+  </si>
+  <si>
+    <t>SM25258LDJD027</t>
+  </si>
+  <si>
+    <t>SM25258LDJD028</t>
+  </si>
+  <si>
+    <t>SM25258LDJD029</t>
+  </si>
+  <si>
+    <t>SM25258LDJD030/031</t>
+  </si>
+  <si>
+    <t>SM25258LDJD032</t>
+  </si>
+  <si>
+    <t>SM25258LDJD033</t>
+  </si>
+  <si>
+    <t>SM25258LDJD034</t>
+  </si>
+  <si>
+    <t>SM25258LDJD035</t>
+  </si>
+  <si>
+    <t>SM25258LDJD036</t>
+  </si>
+  <si>
+    <t>SM25258LDJD037</t>
+  </si>
+  <si>
+    <t>SM25258LDJD038A</t>
+  </si>
+  <si>
+    <t>SM25258LDJD038B</t>
+  </si>
+  <si>
+    <t>SM25258LDJD039</t>
+  </si>
+  <si>
+    <t>SM25258LDJD041-044</t>
+  </si>
+  <si>
+    <t>SM25258LDJD045/107</t>
+  </si>
+  <si>
+    <t>SM25258LDJD046</t>
+  </si>
+  <si>
+    <t>SM25258LDJD047</t>
+  </si>
+  <si>
+    <t>SM25258LDJD048</t>
+  </si>
+  <si>
+    <t>SM25258LDJD049</t>
+  </si>
+  <si>
+    <t>SM25258LDJD050</t>
+  </si>
+  <si>
+    <t>SM25258LDJD051</t>
+  </si>
+  <si>
+    <t>SM25258LDJD052</t>
+  </si>
+  <si>
+    <t>SM25258LDJD053</t>
+  </si>
+  <si>
+    <t>SM25258LDJD054</t>
+  </si>
+  <si>
+    <t>SM25258LDJD055</t>
+  </si>
+  <si>
+    <t>SM25258LDJD056</t>
+  </si>
+  <si>
+    <t>SM25258LDJD057</t>
+  </si>
+  <si>
+    <t>SM25258LDJD058</t>
+  </si>
+  <si>
+    <t>SM25258LDJD060</t>
+  </si>
+  <si>
+    <t>SM25258LDJD061</t>
+  </si>
+  <si>
+    <t>SM25258LDJD062</t>
+  </si>
+  <si>
+    <t>SM25258LDJD063</t>
+  </si>
+  <si>
+    <t>SM25258LDJD082</t>
+  </si>
+  <si>
+    <t>SM25258LDJD084</t>
+  </si>
+  <si>
+    <t>SM25258LDJD085</t>
+  </si>
+  <si>
+    <t>SM25258LDJD087A</t>
+  </si>
+  <si>
+    <t>SM25258LDJD087B</t>
+  </si>
+  <si>
+    <t>SM25258LDJD087C</t>
+  </si>
+  <si>
+    <t>SM25258LDJD087D</t>
+  </si>
+  <si>
+    <t>SM25258LDJD087E</t>
+  </si>
+  <si>
+    <t>SM25258LDJD089</t>
+  </si>
+  <si>
+    <t>SM25258LDJD090</t>
+  </si>
+  <si>
+    <t>SM25258LDJD091</t>
+  </si>
+  <si>
+    <t>SM25258LDJD092</t>
+  </si>
+  <si>
+    <t>SM25258LDJD095</t>
+  </si>
+  <si>
+    <t>SM25258LDJD096</t>
+  </si>
+  <si>
+    <t>SM25258LDJD097</t>
+  </si>
+  <si>
+    <t>SM25258LDJD100</t>
+  </si>
+  <si>
+    <t>SM25258LDJD101</t>
+  </si>
+  <si>
+    <t>SM25258LDJD102</t>
+  </si>
+  <si>
+    <t>SM25258LDJD103</t>
+  </si>
+  <si>
+    <t>SM25258LDJD108</t>
+  </si>
+  <si>
+    <t>SM25258LDJD109</t>
+  </si>
+  <si>
+    <t>SM25258LDJD110</t>
+  </si>
+  <si>
+    <t>SM25258LDJD113/114</t>
+  </si>
+  <si>
+    <t>SM25258LDJD117</t>
+  </si>
+  <si>
+    <t>SM25258LDJD118</t>
+  </si>
+  <si>
+    <t>SM25258LDJD119</t>
+  </si>
+  <si>
+    <t>SM25258LDJD120</t>
+  </si>
+  <si>
+    <t>SM25258LDJD121</t>
+  </si>
+  <si>
+    <t>SM25258LDJD122</t>
+  </si>
+  <si>
+    <t>SM25258LDJD123</t>
+  </si>
+  <si>
+    <t>SM25258LDJD124A</t>
+  </si>
+  <si>
+    <t>SM25258LDJD124B</t>
+  </si>
+  <si>
+    <t>SM25258LDJD125</t>
+  </si>
+  <si>
+    <t>SM25258LDJD126</t>
+  </si>
+  <si>
+    <t>SM25258LDJD127</t>
+  </si>
+  <si>
+    <t>SM25258LDJD128</t>
+  </si>
+  <si>
+    <t>SM25258LDJD129</t>
+  </si>
+  <si>
+    <t>SM25258LDJD130</t>
+  </si>
+  <si>
+    <t>SM25258LDJD131</t>
+  </si>
+  <si>
+    <t>SM25258LDJD133</t>
+  </si>
+  <si>
+    <t>SM25258LDJD134</t>
+  </si>
+  <si>
+    <t>SM25258LDJD135</t>
+  </si>
+  <si>
+    <t>N° BL</t>
+  </si>
+  <si>
+    <t>4240</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16777</t>
+  </si>
+  <si>
+    <t>nombre colis</t>
+  </si>
+  <si>
+    <t>4685.2</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>375.7</t>
+  </si>
+  <si>
+    <t>8180.36</t>
+  </si>
+  <si>
+    <t>973.305</t>
+  </si>
+  <si>
+    <t>2454.61</t>
+  </si>
+  <si>
+    <t>182.352</t>
+  </si>
+  <si>
+    <t>214.919</t>
+  </si>
+  <si>
+    <t>193.151</t>
+  </si>
+  <si>
+    <t>197.237</t>
+  </si>
+  <si>
+    <t>238.041</t>
+  </si>
+  <si>
+    <t>207.756</t>
+  </si>
+  <si>
+    <t>365.15</t>
+  </si>
+  <si>
+    <t>1279.372</t>
+  </si>
+  <si>
+    <t>2032.86</t>
+  </si>
+  <si>
+    <t>1153.379</t>
+  </si>
+  <si>
+    <t>291.129</t>
+  </si>
+  <si>
+    <t>638.2</t>
+  </si>
+  <si>
+    <t>496.17</t>
+  </si>
+  <si>
+    <t>197.35</t>
+  </si>
+  <si>
+    <t>66.348</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>24.94</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>34.27</t>
+  </si>
+  <si>
+    <t>34.635</t>
+  </si>
+  <si>
+    <t>65.968</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>23.677</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>11.72</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>105.425</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>262.2</t>
+  </si>
+  <si>
+    <t>1.536</t>
+  </si>
+  <si>
+    <t>12.67</t>
+  </si>
+  <si>
+    <t>25.34</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>149.64</t>
+  </si>
+  <si>
+    <t>111.44</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>19.35</t>
+  </si>
+  <si>
+    <t>94.41</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>1.387</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>36.284</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>24.45</t>
+  </si>
+  <si>
+    <t>410.601</t>
+  </si>
+  <si>
+    <t>60.2</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>79.5</t>
+  </si>
+  <si>
+    <t>46.46</t>
+  </si>
+  <si>
+    <t>16.55</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>217.5</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>15.72</t>
+  </si>
+  <si>
+    <t>166.8</t>
+  </si>
+  <si>
+    <t>30842.47899999999</t>
+  </si>
+  <si>
+    <t>30842.479</t>
+  </si>
+  <si>
+    <t>Poids brute</t>
+  </si>
+  <si>
+    <t>SGT ALGERIE SPA</t>
+  </si>
+  <si>
+    <t>EURL STEEL SOLIDE</t>
+  </si>
+  <si>
+    <t>EURL GIBA TRADE IMPORT EXPORT</t>
+  </si>
+  <si>
+    <t>SARL BHR WOOD IMPORTATION BOIS ET DERIVES</t>
+  </si>
+  <si>
+    <t>EURL BABOR WOOD</t>
+  </si>
+  <si>
+    <t>SARL CHENEM BOIS IMPORT EXPORT</t>
+  </si>
+  <si>
+    <t>SARL FDB IMPORT EXPORT IMPORTATION DE BOIS ET DERIVEE</t>
+  </si>
+  <si>
+    <t>SARL WOOD TIMBER IMPORTATION DE BOIS ET DERIVEE</t>
+  </si>
+  <si>
+    <t>SARL DJALA IMPORT EXPORT</t>
+  </si>
+  <si>
+    <t>EURL HK BOIS</t>
+  </si>
+  <si>
+    <t>SARL MAHBOUB BOIS IMPORTATION DE BOIS ET DE LIEGE</t>
+  </si>
+  <si>
+    <t>SARL TRADY SPAN</t>
+  </si>
+  <si>
+    <t>SARL GROUPE EL FENNEC</t>
+  </si>
+  <si>
+    <t>SARL GHESSAB MOUSSA ET FILS POUR LE BOIS</t>
+  </si>
+  <si>
+    <t>SARL MONOPAN</t>
+  </si>
+  <si>
+    <t>SARL R H BOIS</t>
+  </si>
+  <si>
+    <t>EURL SNT IMPORT EXPORT</t>
+  </si>
+  <si>
+    <t>GADI KAMAL</t>
+  </si>
+  <si>
+    <t>EURL ENTREPRISE TRAVAUX PUBLICS</t>
+  </si>
+  <si>
+    <t>EURL ALSFWANE SERVICES GENERALE</t>
+  </si>
+  <si>
+    <t>HARIZ FARID</t>
+  </si>
+  <si>
+    <t>SARL BATI SUD 2000</t>
+  </si>
+  <si>
+    <t>TELIB HOCINE</t>
+  </si>
+  <si>
+    <t>SARL ROYAL CERAM</t>
+  </si>
+  <si>
+    <t>ETPH OUAZENE NABIL</t>
+  </si>
+  <si>
+    <t>METRI RABIE</t>
+  </si>
+  <si>
+    <t>GUIRI ABDELGHANI</t>
+  </si>
+  <si>
+    <t>TALEB LEILA</t>
+  </si>
+  <si>
+    <t>AHFAIDIA ABDELWAHEB</t>
+  </si>
+  <si>
+    <t>SARL CHALAL TRAVEL AGENCY</t>
+  </si>
+  <si>
+    <t>EL DJAZAIR IDJAR SPA P/C SARL SLIMZEG GRAND TRAVAUX</t>
+  </si>
+  <si>
+    <t>BENBAAZIZ MOHAMED</t>
+  </si>
+  <si>
+    <t>TITEM ABDELKARIM</t>
+  </si>
+  <si>
+    <t>MAGHREB LEASING ALGERIE SPA P/C SARL MEDJEDED TRAVAUX</t>
+  </si>
+  <si>
+    <t>SARL GROUPE CMMC</t>
+  </si>
+  <si>
+    <t>EURL HYDRO GK</t>
+  </si>
+  <si>
+    <t>BENGUESMIA SOPHIANE</t>
+  </si>
+  <si>
+    <t>SARL MH TAFNA</t>
+  </si>
+  <si>
+    <t>BOUDDAD ALI</t>
+  </si>
+  <si>
+    <t>BOUCHIBA MADJIDA</t>
+  </si>
+  <si>
+    <t>BOUSSIOUD BOUALEM</t>
+  </si>
+  <si>
+    <t>SARL MADJENE</t>
+  </si>
+  <si>
+    <t>HAMDANI MERIEM MARKED</t>
+  </si>
+  <si>
+    <t>SARL RAID GRANDS REALISATIONS</t>
+  </si>
+  <si>
+    <t>SARL KERROUCHE</t>
+  </si>
+  <si>
+    <t>OULAD BRAHIM LAKHDAR</t>
+  </si>
+  <si>
+    <t>EURL GANDER TRAVAUX PUBLICS</t>
+  </si>
+  <si>
+    <t>MADI ABDELOUAHAB</t>
+  </si>
+  <si>
+    <t>EURL GOLDEN SQUARE</t>
+  </si>
+  <si>
+    <t>HADDAD AMMAR</t>
+  </si>
+  <si>
+    <t>SARL SPOTLIGHT PETROLEUM SERVICES</t>
+  </si>
+  <si>
+    <t>HADFI BOUBAKER</t>
+  </si>
+  <si>
+    <t>CHINA ROAD AND BRIDGE CORPORATION</t>
+  </si>
+  <si>
+    <t>BOURGHAIA TOUFIK</t>
+  </si>
+  <si>
+    <t>KHALDI MOHAMED AMINE</t>
+  </si>
+  <si>
+    <t>SARL SAFI SERVICES GENERAL</t>
+  </si>
+  <si>
+    <t>SARL SOCIETE REAL VIT</t>
+  </si>
+  <si>
+    <t>EURL GHERBI MOURAD TRAVAUX ET SERVICES</t>
+  </si>
+  <si>
+    <t>SOCIETE GENERALE ALGERIE SPA LOCATAIRE SARL BATINOL CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>SAIDAT ABDERRAZZAK</t>
+  </si>
+  <si>
+    <t>MOUILAH MOHAMED</t>
+  </si>
+  <si>
+    <t>NATRA INTERNATIONAL SPA</t>
+  </si>
+  <si>
+    <t>EURL PROTIMGAD</t>
+  </si>
+  <si>
+    <t>BENSAID MOHAMMED</t>
+  </si>
+  <si>
+    <t>EURL CHERIF HOSNI KHALID</t>
+  </si>
+  <si>
+    <t>SPA SOCIETE NATIONALE DE LEASING SN</t>
+  </si>
+  <si>
+    <t>SPA CONDOR ELECTRONICS</t>
+  </si>
+  <si>
+    <t>HEBALI MOURAD</t>
+  </si>
+  <si>
+    <t>EURL ECHANOUIA</t>
+  </si>
+  <si>
+    <t>EURL RAIF ROUFI</t>
+  </si>
+  <si>
+    <t>YAKHLEF ABDELAZIZ</t>
+  </si>
+  <si>
+    <t>ETP DIB ZIDANE</t>
+  </si>
+  <si>
+    <t>EURL BOUSSIOUD KOUIDER TRAVAUX</t>
+  </si>
+  <si>
+    <t>EURL PODIOUM TRAVAUX PUBLICS PROJET</t>
+  </si>
+  <si>
+    <t>SARL AURES ROYALE ENTREPRISE</t>
+  </si>
+  <si>
+    <t>KRECHICHE LADJEL</t>
+  </si>
+  <si>
+    <t>SARL ATIA MEHDI ET FRERES</t>
+  </si>
+  <si>
+    <t>KETFI ASSAM</t>
+  </si>
+  <si>
+    <t>SARL LAGRA GRAND TRAVAUX</t>
+  </si>
+  <si>
+    <t>SARL BOUSAADA MATERIAUX DE CONSTRUCTION (BMC)</t>
+  </si>
+  <si>
+    <t>EURL ELSANABEL FABRICO</t>
+  </si>
+  <si>
+    <t>CSCEC ALGERIE</t>
+  </si>
+  <si>
+    <t>EURL ABDELKAHAR YOURT</t>
+  </si>
+  <si>
+    <t>EURL AFIF YACINE TRAVAUX PUBLICS ET TCE</t>
+  </si>
+  <si>
+    <t>EURL BOUGHEZALA ENTERPRISES GENERAUX ET LOCATION MATERIELS</t>
+  </si>
+  <si>
+    <t>EURL BM GRAND TRAVAUX ET SERVICES</t>
+  </si>
+  <si>
+    <t>EURL EL TAHOURE GRANDS TRAVAUX PUBLICS HYDRAULIQUE ET CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>SARL AURES ROYAL ENTREPRISE</t>
+  </si>
+  <si>
+    <t>SARL TANASSAMOU GENIE CIVIL</t>
+  </si>
+  <si>
+    <t>EURL ELASSALA TRAVAUX PUBLICS</t>
+  </si>
+  <si>
+    <t>TABTI ABDELKADER</t>
+  </si>
+  <si>
+    <t>EL DJAZAIR IDJAR SPA P/C HAREK ZIDANE</t>
+  </si>
+  <si>
+    <t>SARL ALLAL INDUSTRIE</t>
+  </si>
+  <si>
+    <t>ABAHRI NACEUR</t>
+  </si>
+  <si>
+    <t>HADJAM ABADOU</t>
+  </si>
+  <si>
+    <t>SociÃ©tÃ© Nationale de GÃ©nie Civil et BÃ¢timent (GCB)</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>RESINE PET JADE POLYESTER CHIPS CZ-302</t>
+  </si>
+  <si>
+    <t>RESINE PET JADE POLYESTER CHIPS CZ-328</t>
+  </si>
+  <si>
+    <t>RESINE PET JADE POLYESTER CHIPS CZ-333</t>
+  </si>
+  <si>
+    <t>PRIME HOT ROLLED STEEL COILS</t>
+  </si>
+  <si>
+    <t>MDF /COMMERCIAL PLYWOOD/BLOCKBOARD/FANCY MDF</t>
+  </si>
+  <si>
+    <t>FILM FACED PLYWOOD</t>
+  </si>
+  <si>
+    <t>FILM FACED PLYWOOD /COMMERCIAL PLYWOOD</t>
+  </si>
+  <si>
+    <t>COMMERCIAL PLYWOOD /FILM FACED PLYWOOD /MDF</t>
+  </si>
+  <si>
+    <t>MDF/FANCY MDF/COMMERCIAL PLYWOOD/BLOCKBOARD/FILM FACED PLYWOOD</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>MDF two sides- one side PVC other side melamine paper</t>
+  </si>
+  <si>
+    <t>block board two sides</t>
+  </si>
+  <si>
+    <t>02 UNITS HYUNDAI EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SHACMAN F2000 6X4 SPRINKLER TRUCK ( VOIR BL )</t>
+  </si>
+  <si>
+    <t>01 UNIT HYUNDAI EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT HYUNDAI HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS XCMG WHEEL LOADER XC958 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT CANMAX 90 TON LOW BED SEMI TRAILER AND ACCESSORIES ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT XCMG 6X4 TRUCK MOUNTED CRANE SQ12ZK4Q ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS ISUZU EC7 SINGLE CAB 4X2 CARGO TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>04 UNITS BUS MODEL: HFF6119KDE5B ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT BUS MODEL: HFF6119KDE5B (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT BUS, MODEL: HFF6730K8D6Z (VOIR BL )</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255DR384 SHACMAN 6X4 DUMP TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT PELLE HYDRAULIQUE HX340HD / BRISE ROCHE HDBB-165Z AUTO-BETONNIEREOMPRE SLM2600S /COMPRESSEUR DâAIR XAVS450 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS CAMION SX3255JM384 SHACMAN F2000 6X4 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>03 UNITS SX3255JM384 SHACMAN 6X4 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT CAMION SHACMAN F2000 6X4 MODEL SX3255JM384 (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT JX1039DL2 CAMION BENNE DEUX CABINES JMC 4X2 (VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS ZZ4257V384GB1 SINOTRUK HOWO-TX 6X4 TRACTOR HEAD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>04 UNITS CAMION BENNE DEUX CABINE JMC 4X2 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT DUMP TRUCK SX3255JM384 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS ZZ3257V384GB1 HOWO TX 6X4 DUMP TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS ZZ4257V344GB1 SINOTRUK HOWO TX 6X4 TRACTOR TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255JM384 DUMP TRUCK ( VOIR BL )</t>
+  </si>
+  <si>
+    <t>04 UNITS SX3255JM384 SHACMAN F2000 6X4 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT THT9480 REMORQUE (40 FT DROPSIDE TRAILERS WITH THREE AXLES) ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>04 UNITS SX3255JM384 SHACMAN F2000 6X4 DUMPER TRUCK 02 UNITS SX5255GYSJM434 SHACMAN F2000 6X4 WATER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>05 UNITS SX3255JM384 SHACMAN F2000 DUMPER TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>05 UNITS SX5255GYSJM434 SHACMAN F2000 6X4 WATER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255JM384 SHACMAN F2000 6X4 DUMP TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX5255GYSJM434 SHACMAN F2000 6x4 WATER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS ND4260BD3J6Z16 BEIBEN HEAD TRACTOR 6X4 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT ND1310DD3J6Z22 BEIBEN TRUCK CARGO 8X4 LONG CABINE ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT ZJV9853TDPTH LOW BED TRAILER ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT ZJV9853TDPTH LOW BED TRAILER CIMC ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT XCMG COMPACTOR XP203S ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS HOWO 6X4 TX DUMP TRUCK WITHOUT TARPAULIN 02 UNITS HOWO 8X4 TX DUMP TRUCK WITHOUT TARPAULIN 02 UNITS HOWO TX 6X4 TRACTOR TRUCK WITH CARGO BOX 01 UNIT HOWO TX 4X2 CARGO TRUCK WITH CARGO BOX 01</t>
+  </si>
+  <si>
+    <t>01 UNIT ZZ4186W361HF1B SINOTRUK SITRAK 540HP 4X2 TRACTOR AUTOMATIC GEARBOX LHD/01 UNIT 40T SEMI TRAILER LXP9600CCY ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT HYUNDAI HX340HD EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT CNHTC 8X4 VACUUM TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>19 UNITS ZLJ5312GJBL7F ZOOMLION CONCRETE MIXER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>SPARE PARTS FOR THE CRETE MIXER TRUCK</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN 6X4 F2000 DUMP TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN 6X4 F2000 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255JM384 SHACMAN 6*4 F2000 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT 3 AXLES 80 TONS LOW BED SEMI-TRAILER CIMC9853TDA (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT CIMC9853TDA CIMC 70 TONS LOW BED TRAILER ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS CIMC9853TDA CIMC 70 TONS LOW BED TRAILER ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>08 UNITS SX3255JM384 SHACMAN F2000 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>06 UNITS FORKLIFTS ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>03 UNITS HYUNDAI CRAWLER EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT HX340HD HYUNDAI CRAWLER EXCAVATOR 01 UNIT HYUNDAI VERTICAL HAMMER MODEL HDBB-165Z ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SHACMAN F3000 6X4 340 HP CARGO TRUCK WITH CRANE ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT XCMG TYPE COMPACTOR XP203 / 01 UNIT XCMG MOTOR GRADER GR215 WHITH BLADE AND RIPPER ( VOIR BL )</t>
+  </si>
+  <si>
+    <t>03 UNITS QY25K5D_5 XCMG TRUCK CRANE(VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX5255GJBJR334 CONCRETE MIXER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN DUMP TRUCK F2000 (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN DUMP TRUCK F2000 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255JM384 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN F2000 6X4 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX5255GYSDN434 SHACMAN F3000 20M3 SPRINKLER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255JM384 SHACMAN F2000 6X4 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>03 UNITS XCMG ROAD ROLLER XP203 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT HX340HD HYUNDAI EXCAVATOR ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS XCMG ROAD ROLLER XP263 + XS203J ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT HYUNDAI CRAWLER EXCAVATOR HX340HD ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SX3255DR384/6Ã4 SHACMAN F3000 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT LHD 4X2 SHACMAN L3000 300HP 20CBM BULK FEED TRUCK 01 UNIT LHD 6X4 SHACMAN H3000 400HP 33CBM BULK FEED TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION MATERIALS</t>
+  </si>
+  <si>
+    <t>10 UNITS SCS5030XLC JMC 4X2 REFRIGERATOR TRUCK 10 UNITS SCS5080XLCQ6 ISUZU 4X2 REFRIGERATOR TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT XCMG ASPHALT CONCRETE PAVER RP603 (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX3255JM384 SHACMAN F2000 DUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX5255GJBJR334 SHACMAN 6*4 F2000 MIX TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SX5255GSSJM434 SHACMAN F2000 6*4 SPRINKLER TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SHACMAN 6X4 F2000 CAMION ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SHACMAN 6X4 F2000 DUMPER (VOIR BL)</t>
+  </si>
+  <si>
+    <t>03 UNITS XCMG ROAD ROLLER XS265JS ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>02 UNITS SHACMAN F2000 6X4 DUMP TRUCK 02 UN ITS SHACMAN F2000 6X4 SPRINKLER TRUCK ( VOIR BL )</t>
+  </si>
+  <si>
+    <t>01 UNIT MOTOR GRADER SEM 922F.EURO2 ENGINE ,FRONT DOZER AND REAR RIPPER ,AC CAB ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SINOTRUK SITRAK 6X4 TRACTOR-MANUAL GEARBOX LHD CAB:G7-P CABIN WITH SINGLE SLEEPER ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>15 UNITS SX3255JM384 SHACMAN 6X4 DUMP TRUCK (VOIR BL)</t>
+  </si>
+  <si>
+    <t>06 UNITS SINOTRUK HOWO TRACTOR TRUCKS ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT XS43 CONCRETE PUMP TRUCK ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>01UNIT XCMG WHEEL LOADER (VOIR BL)</t>
+  </si>
+  <si>
+    <t>01 UNIT SHACMAN F2000 6x4 DUMP TRUCK SX3255JM384 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>12 UNITS MIXER TRUCK SX5255GJB6W384 ( VOIR BL)</t>
+  </si>
+  <si>
+    <t>Marchandise</t>
   </si>
 </sst>
 </file>
@@ -422,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,6 +1792,4044 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" t="s">
+        <v>190</v>
+      </c>
+      <c r="G81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" t="s">
+        <v>224</v>
+      </c>
+      <c r="G82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" t="s">
+        <v>228</v>
+      </c>
+      <c r="G88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" t="s">
+        <v>215</v>
+      </c>
+      <c r="G92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" t="s">
+        <v>190</v>
+      </c>
+      <c r="G96" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>155</v>
+      </c>
+      <c r="F103" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" t="s">
+        <v>202</v>
+      </c>
+      <c r="G106" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" t="s">
+        <v>190</v>
+      </c>
+      <c r="G109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" t="s">
+        <v>155</v>
+      </c>
+      <c r="F112" t="s">
+        <v>190</v>
+      </c>
+      <c r="G112" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>236</v>
+      </c>
+      <c r="G113" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+      <c r="G114" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" t="s">
+        <v>190</v>
+      </c>
+      <c r="G115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" t="s">
+        <v>155</v>
+      </c>
+      <c r="F117" t="s">
+        <v>190</v>
+      </c>
+      <c r="G117" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7">
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" t="s">
+        <v>155</v>
+      </c>
+      <c r="F118" t="s">
+        <v>238</v>
+      </c>
+      <c r="G118" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7">
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" t="s">
+        <v>239</v>
+      </c>
+      <c r="G119" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7">
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+      <c r="E120" t="s">
+        <v>164</v>
+      </c>
+      <c r="F120" t="s">
+        <v>240</v>
+      </c>
+      <c r="G120" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" t="s">
+        <v>165</v>
+      </c>
+      <c r="F121" t="s">
+        <v>241</v>
+      </c>
+      <c r="G121" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" t="s">
+        <v>242</v>
+      </c>
+      <c r="G122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" t="s">
+        <v>155</v>
+      </c>
+      <c r="F123" t="s">
+        <v>190</v>
+      </c>
+      <c r="G123" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7">
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" t="s">
+        <v>155</v>
+      </c>
+      <c r="F124" t="s">
+        <v>225</v>
+      </c>
+      <c r="G124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" t="s">
+        <v>222</v>
+      </c>
+      <c r="G125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" t="s">
+        <v>222</v>
+      </c>
+      <c r="G126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="C127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" t="s">
+        <v>122</v>
+      </c>
+      <c r="E128" t="s">
+        <v>157</v>
+      </c>
+      <c r="F128" t="s">
+        <v>243</v>
+      </c>
+      <c r="G128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" t="s">
+        <v>157</v>
+      </c>
+      <c r="F129" t="s">
+        <v>244</v>
+      </c>
+      <c r="G129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" t="s">
+        <v>124</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" t="s">
+        <v>232</v>
+      </c>
+      <c r="G130" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7">
+      <c r="C131" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" t="s">
+        <v>157</v>
+      </c>
+      <c r="F131" t="s">
+        <v>214</v>
+      </c>
+      <c r="G131" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132" t="s">
+        <v>159</v>
+      </c>
+      <c r="F132" t="s">
+        <v>245</v>
+      </c>
+      <c r="G132" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" t="s">
+        <v>246</v>
+      </c>
+      <c r="G133" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" t="s">
+        <v>247</v>
+      </c>
+      <c r="G134" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" t="s">
+        <v>157</v>
+      </c>
+      <c r="F135" t="s">
+        <v>248</v>
+      </c>
+      <c r="G135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" t="s">
+        <v>166</v>
+      </c>
+      <c r="F136" t="s">
+        <v>249</v>
+      </c>
+      <c r="G136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" t="s">
+        <v>131</v>
+      </c>
+      <c r="E137" t="s">
+        <v>158</v>
+      </c>
+      <c r="F137" t="s">
+        <v>250</v>
+      </c>
+      <c r="G137" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" t="s">
+        <v>251</v>
+      </c>
+      <c r="G138" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" t="s">
+        <v>157</v>
+      </c>
+      <c r="F139" t="s">
+        <v>252</v>
+      </c>
+      <c r="G139" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="E140" t="s">
+        <v>155</v>
+      </c>
+      <c r="F140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F141" t="s">
+        <v>253</v>
+      </c>
+      <c r="G141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" t="s">
+        <v>135</v>
+      </c>
+      <c r="E142" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" t="s">
+        <v>254</v>
+      </c>
+      <c r="G142" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="E143" t="s">
+        <v>167</v>
+      </c>
+      <c r="F143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="E144" t="s">
+        <v>167</v>
+      </c>
+      <c r="F144" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s">
+        <v>257</v>
+      </c>
+      <c r="G145" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146" t="s">
+        <v>155</v>
+      </c>
+      <c r="F146" t="s">
+        <v>190</v>
+      </c>
+      <c r="G146" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F147" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>258</v>
+      </c>
+      <c r="I147" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" t="s">
+        <v>138</v>
+      </c>
+      <c r="F148" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" t="s">
+        <v>258</v>
+      </c>
+      <c r="I148" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>139</v>
+      </c>
+      <c r="F149" t="s">
+        <v>171</v>
+      </c>
+      <c r="G149" t="s">
+        <v>258</v>
+      </c>
+      <c r="I149" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" t="s">
+        <v>140</v>
+      </c>
+      <c r="F150" t="s">
+        <v>172</v>
+      </c>
+      <c r="G150" t="s">
+        <v>259</v>
+      </c>
+      <c r="I150" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="C151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" t="s">
+        <v>173</v>
+      </c>
+      <c r="G151" t="s">
+        <v>260</v>
+      </c>
+      <c r="I151" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G152" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>143</v>
+      </c>
+      <c r="F153" t="s">
+        <v>175</v>
+      </c>
+      <c r="G153" t="s">
+        <v>262</v>
+      </c>
+      <c r="I153" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="s">
+        <v>144</v>
+      </c>
+      <c r="F154" t="s">
+        <v>176</v>
+      </c>
+      <c r="G154" t="s">
+        <v>263</v>
+      </c>
+      <c r="I154" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9">
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>145</v>
+      </c>
+      <c r="F155" t="s">
+        <v>177</v>
+      </c>
+      <c r="G155" t="s">
+        <v>264</v>
+      </c>
+      <c r="I155" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156" t="s">
+        <v>178</v>
+      </c>
+      <c r="G156" t="s">
+        <v>265</v>
+      </c>
+      <c r="I156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" t="s">
+        <v>179</v>
+      </c>
+      <c r="G157" t="s">
+        <v>266</v>
+      </c>
+      <c r="I157" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9">
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" t="s">
+        <v>147</v>
+      </c>
+      <c r="F158" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" t="s">
+        <v>267</v>
+      </c>
+      <c r="I158" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9">
+      <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G159" t="s">
+        <v>268</v>
+      </c>
+      <c r="I159" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9">
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" t="s">
+        <v>148</v>
+      </c>
+      <c r="F160" t="s">
+        <v>182</v>
+      </c>
+      <c r="G160" t="s">
+        <v>269</v>
+      </c>
+      <c r="I160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9">
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>149</v>
+      </c>
+      <c r="F161" t="s">
+        <v>183</v>
+      </c>
+      <c r="G161" t="s">
+        <v>270</v>
+      </c>
+      <c r="I161" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" t="s">
+        <v>150</v>
+      </c>
+      <c r="F162" t="s">
+        <v>184</v>
+      </c>
+      <c r="G162" t="s">
+        <v>271</v>
+      </c>
+      <c r="I162" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>151</v>
+      </c>
+      <c r="F163" t="s">
+        <v>185</v>
+      </c>
+      <c r="G163" t="s">
+        <v>272</v>
+      </c>
+      <c r="I163" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9">
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" t="s">
+        <v>152</v>
+      </c>
+      <c r="F164" t="s">
+        <v>186</v>
+      </c>
+      <c r="G164" t="s">
+        <v>273</v>
+      </c>
+      <c r="I164" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9">
+      <c r="C165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" t="s">
+        <v>153</v>
+      </c>
+      <c r="F165" t="s">
+        <v>187</v>
+      </c>
+      <c r="G165" t="s">
+        <v>274</v>
+      </c>
+      <c r="I165" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" t="s">
+        <v>154</v>
+      </c>
+      <c r="F166" t="s">
+        <v>188</v>
+      </c>
+      <c r="G166" t="s">
+        <v>274</v>
+      </c>
+      <c r="I166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="C167" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" t="s">
+        <v>155</v>
+      </c>
+      <c r="F167" t="s">
+        <v>189</v>
+      </c>
+      <c r="G167" t="s">
+        <v>275</v>
+      </c>
+      <c r="I167" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9">
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" t="s">
+        <v>155</v>
+      </c>
+      <c r="F168" t="s">
+        <v>191</v>
+      </c>
+      <c r="G168" t="s">
+        <v>276</v>
+      </c>
+      <c r="I168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="E169" t="s">
+        <v>157</v>
+      </c>
+      <c r="F169" t="s">
+        <v>192</v>
+      </c>
+      <c r="G169" t="s">
+        <v>277</v>
+      </c>
+      <c r="I169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9">
+      <c r="C170" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" t="s">
+        <v>157</v>
+      </c>
+      <c r="F170" t="s">
+        <v>192</v>
+      </c>
+      <c r="G170" t="s">
+        <v>278</v>
+      </c>
+      <c r="I170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9">
+      <c r="C171" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" t="s">
+        <v>157</v>
+      </c>
+      <c r="F171" t="s">
+        <v>192</v>
+      </c>
+      <c r="G171" t="s">
+        <v>279</v>
+      </c>
+      <c r="I171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9">
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="E172" t="s">
+        <v>157</v>
+      </c>
+      <c r="F172" t="s">
+        <v>193</v>
+      </c>
+      <c r="G172" t="s">
+        <v>280</v>
+      </c>
+      <c r="I172" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9">
+      <c r="C173" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" t="s">
+        <v>155</v>
+      </c>
+      <c r="F173" t="s">
+        <v>194</v>
+      </c>
+      <c r="G173" t="s">
+        <v>281</v>
+      </c>
+      <c r="I173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9">
+      <c r="C174" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" t="s">
+        <v>155</v>
+      </c>
+      <c r="F174" t="s">
+        <v>195</v>
+      </c>
+      <c r="G174" t="s">
+        <v>282</v>
+      </c>
+      <c r="I174" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9">
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175" t="s">
+        <v>157</v>
+      </c>
+      <c r="F175" t="s">
+        <v>196</v>
+      </c>
+      <c r="G175" t="s">
+        <v>283</v>
+      </c>
+      <c r="I175" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9">
+      <c r="C176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" t="s">
+        <v>157</v>
+      </c>
+      <c r="F176" t="s">
+        <v>196</v>
+      </c>
+      <c r="G176" t="s">
+        <v>284</v>
+      </c>
+      <c r="I176" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9">
+      <c r="C177" t="s">
+        <v>47</v>
+      </c>
+      <c r="E177" t="s">
+        <v>155</v>
+      </c>
+      <c r="F177" t="s">
+        <v>197</v>
+      </c>
+      <c r="G177" t="s">
+        <v>285</v>
+      </c>
+      <c r="I177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9">
+      <c r="C178" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" t="s">
+        <v>156</v>
+      </c>
+      <c r="F178" t="s">
+        <v>198</v>
+      </c>
+      <c r="G178" t="s">
+        <v>286</v>
+      </c>
+      <c r="I178" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9">
+      <c r="C179" t="s">
+        <v>49</v>
+      </c>
+      <c r="E179" t="s">
+        <v>157</v>
+      </c>
+      <c r="F179" t="s">
+        <v>199</v>
+      </c>
+      <c r="G179" t="s">
+        <v>287</v>
+      </c>
+      <c r="I179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9">
+      <c r="C180" t="s">
+        <v>50</v>
+      </c>
+      <c r="E180" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" t="s">
+        <v>200</v>
+      </c>
+      <c r="G180" t="s">
+        <v>288</v>
+      </c>
+      <c r="I180" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9">
+      <c r="C181" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" t="s">
+        <v>157</v>
+      </c>
+      <c r="F181" t="s">
+        <v>166</v>
+      </c>
+      <c r="G181" t="s">
+        <v>289</v>
+      </c>
+      <c r="I181" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="3:9">
+      <c r="C182" t="s">
+        <v>52</v>
+      </c>
+      <c r="E182" t="s">
+        <v>157</v>
+      </c>
+      <c r="F182" t="s">
+        <v>201</v>
+      </c>
+      <c r="G182" t="s">
+        <v>290</v>
+      </c>
+      <c r="I182" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="3:9">
+      <c r="C183" t="s">
+        <v>53</v>
+      </c>
+      <c r="E183" t="s">
+        <v>155</v>
+      </c>
+      <c r="F183" t="s">
+        <v>202</v>
+      </c>
+      <c r="G183" t="s">
+        <v>291</v>
+      </c>
+      <c r="I183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9">
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" t="s">
+        <v>159</v>
+      </c>
+      <c r="F184" t="s">
+        <v>203</v>
+      </c>
+      <c r="G184" t="s">
+        <v>292</v>
+      </c>
+      <c r="I184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="3:9">
+      <c r="C185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>157</v>
+      </c>
+      <c r="F185" t="s">
+        <v>166</v>
+      </c>
+      <c r="G185" t="s">
+        <v>293</v>
+      </c>
+      <c r="I185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="3:9">
+      <c r="C186" t="s">
+        <v>56</v>
+      </c>
+      <c r="E186" t="s">
+        <v>157</v>
+      </c>
+      <c r="F186" t="s">
+        <v>204</v>
+      </c>
+      <c r="G186" t="s">
+        <v>293</v>
+      </c>
+      <c r="I186" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="3:9">
+      <c r="C187" t="s">
+        <v>57</v>
+      </c>
+      <c r="E187" t="s">
+        <v>155</v>
+      </c>
+      <c r="F187" t="s">
+        <v>205</v>
+      </c>
+      <c r="G187" t="s">
+        <v>294</v>
+      </c>
+      <c r="I187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="3:9">
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+      <c r="E188" t="s">
+        <v>156</v>
+      </c>
+      <c r="F188" t="s">
+        <v>206</v>
+      </c>
+      <c r="G188" t="s">
+        <v>295</v>
+      </c>
+      <c r="I188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9">
+      <c r="C189" t="s">
+        <v>59</v>
+      </c>
+      <c r="E189" t="s">
+        <v>157</v>
+      </c>
+      <c r="F189" t="s">
+        <v>166</v>
+      </c>
+      <c r="G189" t="s">
+        <v>296</v>
+      </c>
+      <c r="I189" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9">
+      <c r="C190" t="s">
+        <v>60</v>
+      </c>
+      <c r="E190" t="s">
+        <v>155</v>
+      </c>
+      <c r="F190" t="s">
+        <v>202</v>
+      </c>
+      <c r="G190" t="s">
+        <v>297</v>
+      </c>
+      <c r="I190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="3:9">
+      <c r="C191" t="s">
+        <v>61</v>
+      </c>
+      <c r="E191" t="s">
+        <v>155</v>
+      </c>
+      <c r="F191" t="s">
+        <v>205</v>
+      </c>
+      <c r="G191" t="s">
+        <v>297</v>
+      </c>
+      <c r="I191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="3:9">
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" t="s">
+        <v>155</v>
+      </c>
+      <c r="F192" t="s">
+        <v>202</v>
+      </c>
+      <c r="G192" t="s">
+        <v>298</v>
+      </c>
+      <c r="I192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9">
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" t="s">
+        <v>156</v>
+      </c>
+      <c r="F193" t="s">
+        <v>207</v>
+      </c>
+      <c r="G193" t="s">
+        <v>299</v>
+      </c>
+      <c r="I193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9">
+      <c r="C194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" t="s">
+        <v>157</v>
+      </c>
+      <c r="F194" t="s">
+        <v>208</v>
+      </c>
+      <c r="G194" t="s">
+        <v>300</v>
+      </c>
+      <c r="I194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9">
+      <c r="C195" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" t="s">
+        <v>158</v>
+      </c>
+      <c r="F195" t="s">
+        <v>209</v>
+      </c>
+      <c r="G195" t="s">
+        <v>301</v>
+      </c>
+      <c r="I195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9">
+      <c r="C196" t="s">
+        <v>66</v>
+      </c>
+      <c r="E196" t="s">
+        <v>160</v>
+      </c>
+      <c r="F196" t="s">
+        <v>210</v>
+      </c>
+      <c r="G196" t="s">
+        <v>302</v>
+      </c>
+      <c r="I196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9">
+      <c r="C197" t="s">
+        <v>67</v>
+      </c>
+      <c r="E197" t="s">
+        <v>160</v>
+      </c>
+      <c r="F197" t="s">
+        <v>211</v>
+      </c>
+      <c r="G197" t="s">
+        <v>302</v>
+      </c>
+      <c r="I197" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9">
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="E198" t="s">
+        <v>155</v>
+      </c>
+      <c r="F198" t="s">
+        <v>212</v>
+      </c>
+      <c r="G198" t="s">
+        <v>303</v>
+      </c>
+      <c r="I198" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199" spans="3:9">
+      <c r="C199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" t="s">
+        <v>157</v>
+      </c>
+      <c r="F199" t="s">
+        <v>213</v>
+      </c>
+      <c r="G199" t="s">
+        <v>304</v>
+      </c>
+      <c r="I199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="3:9">
+      <c r="C200" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" t="s">
+        <v>155</v>
+      </c>
+      <c r="F200" t="s">
+        <v>214</v>
+      </c>
+      <c r="G200" t="s">
+        <v>304</v>
+      </c>
+      <c r="I200" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="3:9">
+      <c r="C201" t="s">
+        <v>71</v>
+      </c>
+      <c r="E201" t="s">
+        <v>157</v>
+      </c>
+      <c r="F201" t="s">
+        <v>215</v>
+      </c>
+      <c r="G201" t="s">
+        <v>304</v>
+      </c>
+      <c r="I201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="3:9">
+      <c r="C202" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" t="s">
+        <v>304</v>
+      </c>
+      <c r="I202" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9">
+      <c r="C203" t="s">
+        <v>73</v>
+      </c>
+      <c r="E203" t="s">
+        <v>157</v>
+      </c>
+      <c r="F203" t="s">
+        <v>216</v>
+      </c>
+      <c r="G203" t="s">
+        <v>305</v>
+      </c>
+      <c r="I203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9">
+      <c r="C204" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" t="s">
+        <v>157</v>
+      </c>
+      <c r="F204" t="s">
+        <v>165</v>
+      </c>
+      <c r="G204" t="s">
+        <v>304</v>
+      </c>
+      <c r="I204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="3:9">
+      <c r="C205" t="s">
+        <v>75</v>
+      </c>
+      <c r="E205" t="s">
+        <v>161</v>
+      </c>
+      <c r="F205" t="s">
+        <v>217</v>
+      </c>
+      <c r="G205" t="s">
+        <v>306</v>
+      </c>
+      <c r="I205" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="3:9">
+      <c r="C206" t="s">
+        <v>76</v>
+      </c>
+      <c r="E206" t="s">
+        <v>157</v>
+      </c>
+      <c r="F206" t="s">
+        <v>218</v>
+      </c>
+      <c r="G206" t="s">
+        <v>307</v>
+      </c>
+      <c r="I206" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="3:9">
+      <c r="C207" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" t="s">
+        <v>157</v>
+      </c>
+      <c r="F207" t="s">
+        <v>219</v>
+      </c>
+      <c r="G207" t="s">
+        <v>308</v>
+      </c>
+      <c r="I207" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="3:9">
+      <c r="C208" t="s">
+        <v>78</v>
+      </c>
+      <c r="E208" t="s">
+        <v>157</v>
+      </c>
+      <c r="F208" t="s">
+        <v>213</v>
+      </c>
+      <c r="G208" t="s">
+        <v>309</v>
+      </c>
+      <c r="I208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="3:9">
+      <c r="C209" t="s">
+        <v>79</v>
+      </c>
+      <c r="E209" t="s">
+        <v>162</v>
+      </c>
+      <c r="F209" t="s">
+        <v>220</v>
+      </c>
+      <c r="G209" t="s">
+        <v>310</v>
+      </c>
+      <c r="I209" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="3:9">
+      <c r="C210" t="s">
+        <v>80</v>
+      </c>
+      <c r="E210" t="s">
+        <v>160</v>
+      </c>
+      <c r="F210" t="s">
+        <v>221</v>
+      </c>
+      <c r="G210" t="s">
+        <v>310</v>
+      </c>
+      <c r="I210" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="3:9">
+      <c r="C211" t="s">
+        <v>81</v>
+      </c>
+      <c r="E211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F211" t="s">
+        <v>222</v>
+      </c>
+      <c r="G211" t="s">
+        <v>311</v>
+      </c>
+      <c r="I211" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212" spans="3:9">
+      <c r="C212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E212" t="s">
+        <v>157</v>
+      </c>
+      <c r="F212" t="s">
+        <v>222</v>
+      </c>
+      <c r="G212" t="s">
+        <v>312</v>
+      </c>
+      <c r="I212" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213" spans="3:9">
+      <c r="C213" t="s">
+        <v>83</v>
+      </c>
+      <c r="E213" t="s">
+        <v>155</v>
+      </c>
+      <c r="F213" t="s">
+        <v>223</v>
+      </c>
+      <c r="G213" t="s">
+        <v>283</v>
+      </c>
+      <c r="I213" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="214" spans="3:9">
+      <c r="C214" t="s">
+        <v>84</v>
+      </c>
+      <c r="E214" t="s">
+        <v>157</v>
+      </c>
+      <c r="F214" t="s">
+        <v>216</v>
+      </c>
+      <c r="G214" t="s">
+        <v>313</v>
+      </c>
+      <c r="I214" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="3:9">
+      <c r="C215" t="s">
+        <v>85</v>
+      </c>
+      <c r="E215" t="s">
+        <v>157</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+      <c r="G215" t="s">
+        <v>314</v>
+      </c>
+      <c r="I215" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="216" spans="3:9">
+      <c r="C216" t="s">
+        <v>86</v>
+      </c>
+      <c r="E216" t="s">
+        <v>157</v>
+      </c>
+      <c r="F216" t="s">
+        <v>224</v>
+      </c>
+      <c r="G216" t="s">
+        <v>315</v>
+      </c>
+      <c r="I216" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="217" spans="3:9">
+      <c r="C217" t="s">
+        <v>87</v>
+      </c>
+      <c r="E217" t="s">
+        <v>155</v>
+      </c>
+      <c r="F217" t="s">
+        <v>225</v>
+      </c>
+      <c r="G217" t="s">
+        <v>316</v>
+      </c>
+      <c r="I217" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="3:9">
+      <c r="C218" t="s">
+        <v>88</v>
+      </c>
+      <c r="E218" t="s">
+        <v>157</v>
+      </c>
+      <c r="F218" t="s">
+        <v>219</v>
+      </c>
+      <c r="G218" t="s">
+        <v>317</v>
+      </c>
+      <c r="I218" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="219" spans="3:9">
+      <c r="C219" t="s">
+        <v>89</v>
+      </c>
+      <c r="E219" t="s">
+        <v>163</v>
+      </c>
+      <c r="F219" t="s">
+        <v>226</v>
+      </c>
+      <c r="G219" t="s">
+        <v>318</v>
+      </c>
+      <c r="I219" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="220" spans="3:9">
+      <c r="C220" t="s">
+        <v>90</v>
+      </c>
+      <c r="E220" t="s">
+        <v>158</v>
+      </c>
+      <c r="F220" t="s">
+        <v>227</v>
+      </c>
+      <c r="G220" t="s">
+        <v>319</v>
+      </c>
+      <c r="I220" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="221" spans="3:9">
+      <c r="C221" t="s">
+        <v>91</v>
+      </c>
+      <c r="E221" t="s">
+        <v>159</v>
+      </c>
+      <c r="F221" t="s">
+        <v>228</v>
+      </c>
+      <c r="G221" t="s">
+        <v>320</v>
+      </c>
+      <c r="I221" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="3:9">
+      <c r="C222" t="s">
+        <v>92</v>
+      </c>
+      <c r="E222" t="s">
+        <v>157</v>
+      </c>
+      <c r="F222" t="s">
+        <v>229</v>
+      </c>
+      <c r="G222" t="s">
+        <v>321</v>
+      </c>
+      <c r="I222" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="223" spans="3:9">
+      <c r="C223" t="s">
+        <v>93</v>
+      </c>
+      <c r="E223" t="s">
+        <v>157</v>
+      </c>
+      <c r="F223" t="s">
+        <v>215</v>
+      </c>
+      <c r="G223" t="s">
+        <v>322</v>
+      </c>
+      <c r="I223" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" spans="3:9">
+      <c r="C224" t="s">
+        <v>94</v>
+      </c>
+      <c r="E224" t="s">
+        <v>157</v>
+      </c>
+      <c r="F224" t="s">
+        <v>230</v>
+      </c>
+      <c r="G224" t="s">
+        <v>323</v>
+      </c>
+      <c r="I224" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9">
+      <c r="C225" t="s">
+        <v>95</v>
+      </c>
+      <c r="E225" t="s">
+        <v>159</v>
+      </c>
+      <c r="F225" t="s">
+        <v>231</v>
+      </c>
+      <c r="G225" t="s">
+        <v>324</v>
+      </c>
+      <c r="I225" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9">
+      <c r="C226" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" t="s">
+        <v>155</v>
+      </c>
+      <c r="F226" t="s">
+        <v>232</v>
+      </c>
+      <c r="G226" t="s">
+        <v>325</v>
+      </c>
+      <c r="I226" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="227" spans="3:9">
+      <c r="C227" t="s">
+        <v>97</v>
+      </c>
+      <c r="E227" t="s">
+        <v>157</v>
+      </c>
+      <c r="F227" t="s">
+        <v>214</v>
+      </c>
+      <c r="G227" t="s">
+        <v>326</v>
+      </c>
+      <c r="I227" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9">
+      <c r="C228" t="s">
+        <v>98</v>
+      </c>
+      <c r="E228" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" t="s">
+        <v>214</v>
+      </c>
+      <c r="G228" t="s">
+        <v>326</v>
+      </c>
+      <c r="I228" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="3:9">
+      <c r="C229" t="s">
+        <v>99</v>
+      </c>
+      <c r="E229" t="s">
+        <v>157</v>
+      </c>
+      <c r="F229" t="s">
+        <v>214</v>
+      </c>
+      <c r="G229" t="s">
+        <v>326</v>
+      </c>
+      <c r="I229" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="3:9">
+      <c r="C230" t="s">
+        <v>100</v>
+      </c>
+      <c r="E230" t="s">
+        <v>157</v>
+      </c>
+      <c r="F230" t="s">
+        <v>214</v>
+      </c>
+      <c r="G230" t="s">
+        <v>326</v>
+      </c>
+      <c r="I230" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="231" spans="3:9">
+      <c r="C231" t="s">
+        <v>101</v>
+      </c>
+      <c r="E231" t="s">
+        <v>157</v>
+      </c>
+      <c r="F231" t="s">
+        <v>214</v>
+      </c>
+      <c r="G231" t="s">
+        <v>326</v>
+      </c>
+      <c r="I231" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="3:9">
+      <c r="C232" t="s">
+        <v>102</v>
+      </c>
+      <c r="E232" t="s">
+        <v>155</v>
+      </c>
+      <c r="F232" t="s">
+        <v>202</v>
+      </c>
+      <c r="G232" t="s">
+        <v>327</v>
+      </c>
+      <c r="I232" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="233" spans="3:9">
+      <c r="C233" t="s">
+        <v>103</v>
+      </c>
+      <c r="E233" t="s">
+        <v>157</v>
+      </c>
+      <c r="F233" t="s">
+        <v>166</v>
+      </c>
+      <c r="G233" t="s">
+        <v>328</v>
+      </c>
+      <c r="I233" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="234" spans="3:9">
+      <c r="C234" t="s">
+        <v>104</v>
+      </c>
+      <c r="E234" t="s">
+        <v>157</v>
+      </c>
+      <c r="F234" t="s">
+        <v>233</v>
+      </c>
+      <c r="G234" t="s">
+        <v>329</v>
+      </c>
+      <c r="I234" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="235" spans="3:9">
+      <c r="C235" t="s">
+        <v>105</v>
+      </c>
+      <c r="E235" t="s">
+        <v>155</v>
+      </c>
+      <c r="F235" t="s">
+        <v>202</v>
+      </c>
+      <c r="G235" t="s">
+        <v>330</v>
+      </c>
+      <c r="I235" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="236" spans="3:9">
+      <c r="C236" t="s">
+        <v>106</v>
+      </c>
+      <c r="E236" t="s">
+        <v>159</v>
+      </c>
+      <c r="F236" t="s">
+        <v>207</v>
+      </c>
+      <c r="G236" t="s">
+        <v>331</v>
+      </c>
+      <c r="I236" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="237" spans="3:9">
+      <c r="C237" t="s">
+        <v>107</v>
+      </c>
+      <c r="E237" t="s">
+        <v>157</v>
+      </c>
+      <c r="F237" t="s">
+        <v>234</v>
+      </c>
+      <c r="G237" t="s">
+        <v>332</v>
+      </c>
+      <c r="I237" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="238" spans="3:9">
+      <c r="C238" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238" t="s">
+        <v>160</v>
+      </c>
+      <c r="F238" t="s">
+        <v>235</v>
+      </c>
+      <c r="G238" t="s">
+        <v>310</v>
+      </c>
+      <c r="I238" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="3:9">
+      <c r="C239" t="s">
+        <v>109</v>
+      </c>
+      <c r="E239" t="s">
+        <v>157</v>
+      </c>
+      <c r="F239" t="s">
+        <v>219</v>
+      </c>
+      <c r="G239" t="s">
+        <v>333</v>
+      </c>
+      <c r="I239" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="240" spans="3:9">
+      <c r="C240" t="s">
+        <v>110</v>
+      </c>
+      <c r="E240" t="s">
+        <v>155</v>
+      </c>
+      <c r="F240" t="s">
+        <v>236</v>
+      </c>
+      <c r="G240" t="s">
+        <v>334</v>
+      </c>
+      <c r="I240" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9">
+      <c r="C241" t="s">
+        <v>111</v>
+      </c>
+      <c r="E241" t="s">
+        <v>157</v>
+      </c>
+      <c r="F241" t="s">
+        <v>237</v>
+      </c>
+      <c r="G241" t="s">
+        <v>335</v>
+      </c>
+      <c r="I241" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="242" spans="3:9">
+      <c r="C242" t="s">
+        <v>112</v>
+      </c>
+      <c r="E242" t="s">
+        <v>157</v>
+      </c>
+      <c r="F242" t="s">
+        <v>192</v>
+      </c>
+      <c r="G242" t="s">
+        <v>336</v>
+      </c>
+      <c r="I242" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="243" spans="3:9">
+      <c r="C243" t="s">
+        <v>113</v>
+      </c>
+      <c r="E243" t="s">
+        <v>155</v>
+      </c>
+      <c r="F243" t="s">
+        <v>238</v>
+      </c>
+      <c r="G243" t="s">
+        <v>337</v>
+      </c>
+      <c r="I243" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="244" spans="3:9">
+      <c r="C244" t="s">
+        <v>114</v>
+      </c>
+      <c r="E244" t="s">
+        <v>155</v>
+      </c>
+      <c r="F244" t="s">
+        <v>239</v>
+      </c>
+      <c r="G244" t="s">
+        <v>338</v>
+      </c>
+      <c r="I244" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="245" spans="3:9">
+      <c r="C245" t="s">
+        <v>115</v>
+      </c>
+      <c r="E245" t="s">
+        <v>164</v>
+      </c>
+      <c r="F245" t="s">
+        <v>240</v>
+      </c>
+      <c r="G245" t="s">
+        <v>339</v>
+      </c>
+      <c r="I245" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="246" spans="3:9">
+      <c r="C246" t="s">
+        <v>116</v>
+      </c>
+      <c r="E246" t="s">
+        <v>165</v>
+      </c>
+      <c r="F246" t="s">
+        <v>241</v>
+      </c>
+      <c r="G246" t="s">
+        <v>340</v>
+      </c>
+      <c r="I246" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="247" spans="3:9">
+      <c r="C247" t="s">
+        <v>117</v>
+      </c>
+      <c r="E247" t="s">
+        <v>157</v>
+      </c>
+      <c r="F247" t="s">
+        <v>242</v>
+      </c>
+      <c r="G247" t="s">
+        <v>334</v>
+      </c>
+      <c r="I247" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="248" spans="3:9">
+      <c r="C248" t="s">
+        <v>118</v>
+      </c>
+      <c r="E248" t="s">
+        <v>155</v>
+      </c>
+      <c r="F248" t="s">
+        <v>225</v>
+      </c>
+      <c r="G248" t="s">
+        <v>341</v>
+      </c>
+      <c r="I248" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="249" spans="3:9">
+      <c r="C249" t="s">
+        <v>119</v>
+      </c>
+      <c r="E249" t="s">
+        <v>157</v>
+      </c>
+      <c r="F249" t="s">
+        <v>222</v>
+      </c>
+      <c r="G249" t="s">
+        <v>342</v>
+      </c>
+      <c r="I249" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="250" spans="3:9">
+      <c r="C250" t="s">
+        <v>120</v>
+      </c>
+      <c r="E250" t="s">
+        <v>157</v>
+      </c>
+      <c r="F250" t="s">
+        <v>222</v>
+      </c>
+      <c r="G250" t="s">
+        <v>343</v>
+      </c>
+      <c r="I250" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="251" spans="3:9">
+      <c r="C251" t="s">
+        <v>121</v>
+      </c>
+      <c r="E251" t="s">
+        <v>157</v>
+      </c>
+      <c r="F251" t="s">
+        <v>243</v>
+      </c>
+      <c r="G251" t="s">
+        <v>342</v>
+      </c>
+      <c r="I251" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="252" spans="3:9">
+      <c r="C252" t="s">
+        <v>122</v>
+      </c>
+      <c r="E252" t="s">
+        <v>157</v>
+      </c>
+      <c r="F252" t="s">
+        <v>243</v>
+      </c>
+      <c r="G252" t="s">
+        <v>343</v>
+      </c>
+      <c r="I252" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="253" spans="3:9">
+      <c r="C253" t="s">
+        <v>123</v>
+      </c>
+      <c r="E253" t="s">
+        <v>157</v>
+      </c>
+      <c r="F253" t="s">
+        <v>244</v>
+      </c>
+      <c r="G253" t="s">
+        <v>315</v>
+      </c>
+      <c r="I253" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="254" spans="3:9">
+      <c r="C254" t="s">
+        <v>124</v>
+      </c>
+      <c r="E254" t="s">
+        <v>155</v>
+      </c>
+      <c r="F254" t="s">
+        <v>232</v>
+      </c>
+      <c r="G254" t="s">
+        <v>344</v>
+      </c>
+      <c r="I254" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="255" spans="3:9">
+      <c r="C255" t="s">
+        <v>125</v>
+      </c>
+      <c r="E255" t="s">
+        <v>157</v>
+      </c>
+      <c r="F255" t="s">
+        <v>214</v>
+      </c>
+      <c r="G255" t="s">
+        <v>345</v>
+      </c>
+      <c r="I255" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9">
+      <c r="C256" t="s">
+        <v>126</v>
+      </c>
+      <c r="E256" t="s">
+        <v>159</v>
+      </c>
+      <c r="F256" t="s">
+        <v>245</v>
+      </c>
+      <c r="G256" t="s">
+        <v>331</v>
+      </c>
+      <c r="I256" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="257" spans="3:9">
+      <c r="C257" t="s">
+        <v>127</v>
+      </c>
+      <c r="E257" t="s">
+        <v>156</v>
+      </c>
+      <c r="F257" t="s">
+        <v>246</v>
+      </c>
+      <c r="G257" t="s">
+        <v>346</v>
+      </c>
+      <c r="I257" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9">
+      <c r="C258" t="s">
+        <v>128</v>
+      </c>
+      <c r="E258" t="s">
+        <v>157</v>
+      </c>
+      <c r="F258" t="s">
+        <v>247</v>
+      </c>
+      <c r="G258" t="s">
+        <v>347</v>
+      </c>
+      <c r="I258" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="259" spans="3:9">
+      <c r="C259" t="s">
+        <v>129</v>
+      </c>
+      <c r="E259" t="s">
+        <v>157</v>
+      </c>
+      <c r="F259" t="s">
+        <v>248</v>
+      </c>
+      <c r="G259" t="s">
+        <v>348</v>
+      </c>
+      <c r="I259" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="260" spans="3:9">
+      <c r="C260" t="s">
+        <v>130</v>
+      </c>
+      <c r="E260" t="s">
+        <v>166</v>
+      </c>
+      <c r="F260" t="s">
+        <v>249</v>
+      </c>
+      <c r="G260" t="s">
+        <v>349</v>
+      </c>
+      <c r="I260" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="261" spans="3:9">
+      <c r="C261" t="s">
+        <v>131</v>
+      </c>
+      <c r="E261" t="s">
+        <v>158</v>
+      </c>
+      <c r="F261" t="s">
+        <v>250</v>
+      </c>
+      <c r="G261" t="s">
+        <v>350</v>
+      </c>
+      <c r="I261" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="262" spans="3:9">
+      <c r="C262" t="s">
+        <v>132</v>
+      </c>
+      <c r="E262" t="s">
+        <v>157</v>
+      </c>
+      <c r="F262" t="s">
+        <v>251</v>
+      </c>
+      <c r="G262" t="s">
+        <v>351</v>
+      </c>
+      <c r="I262" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="263" spans="3:9">
+      <c r="C263" t="s">
+        <v>133</v>
+      </c>
+      <c r="E263" t="s">
+        <v>157</v>
+      </c>
+      <c r="F263" t="s">
+        <v>252</v>
+      </c>
+      <c r="G263" t="s">
+        <v>345</v>
+      </c>
+      <c r="I263" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="264" spans="3:9">
+      <c r="C264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" t="s">
+        <v>157</v>
+      </c>
+      <c r="F264" t="s">
+        <v>253</v>
+      </c>
+      <c r="G264" t="s">
+        <v>352</v>
+      </c>
+      <c r="I264" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="265" spans="3:9">
+      <c r="C265" t="s">
+        <v>135</v>
+      </c>
+      <c r="E265" t="s">
+        <v>163</v>
+      </c>
+      <c r="F265" t="s">
+        <v>254</v>
+      </c>
+      <c r="G265" t="s">
+        <v>353</v>
+      </c>
+      <c r="I265" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="266" spans="3:9">
+      <c r="C266" t="s">
+        <v>136</v>
+      </c>
+      <c r="E266" t="s">
+        <v>168</v>
+      </c>
+      <c r="F266" t="s">
+        <v>257</v>
+      </c>
+      <c r="G266" t="s">
+        <v>354</v>
+      </c>
+      <c r="I266" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
